--- a/result.xlsx
+++ b/result.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TTHJ/Desktop/ETH/ETH-2017-SPRING/Computational Intelligence Lab/project/ETH_2017S_CIL_Collaborative_Filtering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETH\courses\CIL\Collaborative_Filtering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>RSVD</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,13 +90,17 @@
     <rPh sb="2" eb="3">
       <t>xe</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear Model</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -150,20 +154,23 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -432,16 +439,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -462,25 +469,25 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -489,7 +496,7 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="3"/>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -501,7 +508,12 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>RSVD</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>RSVD-with knn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSVD-with krr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -94,6 +90,34 @@
   </si>
   <si>
     <t>Linear Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSVD-with krr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSVD2-with krr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>split 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>split2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ridge alpha = 0.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>average of 4,6,8,10,12,14,16,18,20,22,24 clusters</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -439,87 +463,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="1" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1.0784081347100001</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>10</v>
+      <c r="B8">
+        <v>1.01672377186</v>
+      </c>
+      <c r="C8">
+        <v>1.0200050479</v>
+      </c>
+      <c r="D8" s="2">
+        <f>(B8+C8)/2</f>
+        <v>1.01836440988</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="E2:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>RSVD</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,16 +41,6 @@
     <t>所有merge</t>
     <rPh sb="0" eb="1">
       <t>suo'you</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非线性</t>
-    <rPh sb="0" eb="1">
-      <t>fei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xian'xing</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,12 +110,28 @@
     <t>average of 4,6,8,10,12,14,16,18,20,22,24 clusters</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>split1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>split2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>split2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非线性全梯度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +150,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -176,13 +189,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -475,89 +491,126 @@
     <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F3" s="5">
+        <v>0.98477633248999996</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.98609589528899999</v>
+      </c>
+      <c r="H3" s="6">
+        <f>(F3+G3)/2</f>
+        <v>0.98543611388950003</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1.0437874158</v>
+      </c>
+      <c r="C4">
+        <v>1.0472273028100001</v>
+      </c>
+      <c r="D4" s="2">
+        <f>(B4+C4)/2</f>
+        <v>1.0455073593050002</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>11</v>
       </c>
       <c r="B7">
         <v>1.0784081347100001</v>
       </c>
+      <c r="C7">
+        <v>1.08233799913</v>
+      </c>
+      <c r="D7" s="2">
+        <f>(B7+C7)/2</f>
+        <v>1.08037306692</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1.01672377186</v>
@@ -569,8 +622,8 @@
         <f>(B8+C8)/2</f>
         <v>1.01836440988</v>
       </c>
-      <c r="H8" t="s">
-        <v>15</v>
+      <c r="L8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>RSVD</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>非线性全梯度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非线性在重跑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -193,12 +197,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +486,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -531,29 +535,39 @@
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5">
+      <c r="E3" s="6"/>
+      <c r="F3" s="4">
         <v>0.98477633248999996</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.98609589528899999</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>(F3+G3)/2</f>
         <v>0.98543611388950003</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
+      <c r="I3" s="4">
+        <v>0.998134165139</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.0001179839300001</v>
+      </c>
+      <c r="K3" s="5">
+        <f>(I3+J3)/2</f>
+        <v>0.99912607453450009</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -569,7 +583,7 @@
         <f>(B4+C4)/2</f>
         <v>1.0455073593050002</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="6"/>
       <c r="L4" t="s">
         <v>15</v>
       </c>
@@ -581,7 +595,7 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="6"/>
       <c r="H5" t="s">
         <v>7</v>
       </c>
@@ -590,7 +604,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -606,7 +620,7 @@
         <f>(B7+C7)/2</f>
         <v>1.08037306692</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">

--- a/result.xlsx
+++ b/result.xlsx
@@ -24,17 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>RSVD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RSVD2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSVD-with knn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -69,16 +65,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>没有写</t>
-    <rPh sb="0" eb="1">
-      <t>mei'you</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xe</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Linear Model</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -103,10 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ridge alpha = 0.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>average of 4,6,8,10,12,14,16,18,20,22,24 clusters</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,7 +109,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>非线性在重跑</t>
+    <t>非线性在重跑，sgd k=5, fullgradient k=32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgd split 1 k=20, split 2 k=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda=0.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=32, ridge alpha=0.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -497,81 +495,91 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>1.02170754823</v>
+      </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="K2" s="6"/>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1.0243710505800001</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="4">
+        <v>0.98477633248999996</v>
+      </c>
       <c r="F3" s="4">
-        <v>0.98477633248999996</v>
-      </c>
-      <c r="G3" s="4">
         <v>0.98609589528899999</v>
       </c>
-      <c r="H3" s="5">
-        <f>(F3+G3)/2</f>
+      <c r="G3" s="5">
+        <f>(E3+F3)/2</f>
         <v>0.98543611388950003</v>
       </c>
+      <c r="H3" s="4">
+        <v>0.998134165139</v>
+      </c>
       <c r="I3" s="4">
-        <v>0.998134165139</v>
-      </c>
-      <c r="J3" s="4">
         <v>1.0001179839300001</v>
       </c>
-      <c r="K3" s="5">
-        <f>(I3+J3)/2</f>
+      <c r="J3" s="5">
+        <f>(H3+I3)/2</f>
         <v>0.99912607453450009</v>
       </c>
+      <c r="K3" s="6"/>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1.0437874158</v>
@@ -583,66 +591,62 @@
         <f>(B4+C4)/2</f>
         <v>1.0455073593050002</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="K4" s="6"/>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="H5" t="s">
-        <v>7</v>
+      <c r="D5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="L5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1.0784081347100001</v>
+      </c>
+      <c r="C6">
+        <v>1.08233799913</v>
+      </c>
+      <c r="D6" s="2">
+        <f>(B6+C6)/2</f>
+        <v>1.08037306692</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1.0784081347100001</v>
+        <v>1.01672377186</v>
       </c>
       <c r="C7">
-        <v>1.08233799913</v>
+        <v>1.0200050479</v>
       </c>
       <c r="D7" s="2">
         <f>(B7+C7)/2</f>
-        <v>1.08037306692</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1.01672377186</v>
-      </c>
-      <c r="C8">
-        <v>1.0200050479</v>
-      </c>
-      <c r="D8" s="2">
-        <f>(B8+C8)/2</f>
         <v>1.01836440988</v>
       </c>
-      <c r="L8" t="s">
-        <v>14</v>
+      <c r="K7" s="6"/>
+      <c r="L7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="K2:K7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>RSVD</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sgd split 1 k=20, split 2 k=10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>k=32</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,6 +122,22 @@
   </si>
   <si>
     <t>k=32, ridge alpha=0.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgd split 1 k=20 （重跑）, split 2 k=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +187,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,9 +209,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -201,6 +218,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,50 +504,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -532,16 +561,22 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.03210860132</v>
+      </c>
       <c r="C2">
         <v>1.02170754823</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="7">
+        <f>(B2+C2)/2</f>
+        <v>1.0269080747750001</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="7"/>
       <c r="K2" s="6"/>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -551,24 +586,24 @@
       <c r="C3">
         <v>1.0243710505800001</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4">
+      <c r="D3" s="9"/>
+      <c r="E3" s="3">
         <v>0.98477633248999996</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.98609589528899999</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>(E3+F3)/2</f>
         <v>0.98543611388950003</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.998134165139</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>1.0001179839300001</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="8">
         <f>(H3+I3)/2</f>
         <v>0.99912607453450009</v>
       </c>
@@ -587,7 +622,7 @@
       <c r="C4">
         <v>1.0472273028100001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>(B4+C4)/2</f>
         <v>1.0455073593050002</v>
       </c>
@@ -600,10 +635,10 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="7"/>
       <c r="K5" s="6"/>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -616,13 +651,13 @@
       <c r="C6">
         <v>1.08233799913</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>(B6+C6)/2</f>
         <v>1.08037306692</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -635,13 +670,23 @@
       <c r="C7">
         <v>1.0200050479</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>(B7+C7)/2</f>
         <v>1.01836440988</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -218,12 +218,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -567,14 +569,14 @@
       <c r="C2">
         <v>1.02170754823</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>(B2+C2)/2</f>
         <v>1.0269080747750001</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="7"/>
-      <c r="K2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="K2" s="9"/>
       <c r="L2" t="s">
         <v>21</v>
       </c>
@@ -586,7 +588,7 @@
       <c r="C3">
         <v>1.0243710505800001</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="3">
         <v>0.98477633248999996</v>
       </c>
@@ -603,11 +605,11 @@
       <c r="I3" s="3">
         <v>1.0001179839300001</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <f>(H3+I3)/2</f>
         <v>0.99912607453450009</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="9"/>
       <c r="L3" t="s">
         <v>17</v>
       </c>
@@ -626,7 +628,7 @@
         <f>(B4+C4)/2</f>
         <v>1.0455073593050002</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="9"/>
       <c r="L4" t="s">
         <v>12</v>
       </c>
@@ -635,8 +637,8 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="K5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="K5" s="9"/>
       <c r="L5" t="s">
         <v>18</v>
       </c>
@@ -655,7 +657,7 @@
         <f>(B6+C6)/2</f>
         <v>1.08037306692</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="9"/>
       <c r="L6" t="s">
         <v>20</v>
       </c>
@@ -674,13 +676,13 @@
         <f>(B7+C7)/2</f>
         <v>1.01836440988</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="9"/>
       <c r="L7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -27,18 +27,18 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>RSVD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RSVD2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所有merge</t>
     <rPh sb="0" eb="1">
       <t>suo'you</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全梯度</t>
@@ -48,7 +48,7 @@
     <rPh sb="1" eb="2">
       <t>ti'du</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单个/线性/sgd</t>
@@ -58,105 +58,97 @@
     <rPh sb="3" eb="4">
       <t>xian'xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>K-means</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Linear Model</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RSVD-with krr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RSVD2-with krr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>split 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>split2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>average of 4,6,8,10,12,14,16,18,20,22,24 clusters</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>split1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>split2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>split2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>非线性全梯度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>非线性在重跑，sgd k=5, fullgradient k=32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>k=32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lambda=0.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>k=32, ridge alpha=0.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sgd split 1 k=20 （重跑）, split 2 k=10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>确定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -209,18 +201,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,7 +498,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -576,7 +567,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="6"/>
-      <c r="K2" s="9"/>
+      <c r="K2" s="8"/>
       <c r="L2" t="s">
         <v>21</v>
       </c>
@@ -585,10 +576,16 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.00765175887</v>
+      </c>
       <c r="C3">
-        <v>1.0243710505800001</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>1.0103749288299999</v>
+      </c>
+      <c r="D3" s="1">
+        <f>(B3+C3)/2</f>
+        <v>1.00901334385</v>
+      </c>
       <c r="E3" s="3">
         <v>0.98477633248999996</v>
       </c>
@@ -609,7 +606,7 @@
         <f>(H3+I3)/2</f>
         <v>0.99912607453450009</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="8"/>
       <c r="L3" t="s">
         <v>17</v>
       </c>
@@ -628,7 +625,7 @@
         <f>(B4+C4)/2</f>
         <v>1.0455073593050002</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="8"/>
       <c r="L4" t="s">
         <v>12</v>
       </c>
@@ -638,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="K5" s="9"/>
+      <c r="K5" s="8"/>
       <c r="L5" t="s">
         <v>18</v>
       </c>
@@ -657,7 +654,7 @@
         <f>(B6+C6)/2</f>
         <v>1.08037306692</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="8"/>
       <c r="L6" t="s">
         <v>20</v>
       </c>
@@ -676,7 +673,7 @@
         <f>(B7+C7)/2</f>
         <v>1.01836440988</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="8"/>
       <c r="L7" t="s">
         <v>19</v>
       </c>
@@ -695,7 +692,7 @@
   <mergeCells count="1">
     <mergeCell ref="K2:K7"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sgd split 1 k=20 （重跑）, split 2 k=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +134,10 @@
   </si>
   <si>
     <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgd k=10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +498,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -514,7 +514,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -555,21 +555,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.03210860132</v>
+        <v>1.01829630753</v>
       </c>
       <c r="C2">
-        <v>1.02170754823</v>
-      </c>
-      <c r="D2" s="6">
+        <v>1.02146865384</v>
+      </c>
+      <c r="D2" s="1">
         <f>(B2+C2)/2</f>
-        <v>1.0269080747750001</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
+        <v>1.019882480685</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.0020703154599999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.0032493259799999</v>
+      </c>
+      <c r="G2" s="4">
+        <f>(E2+F2)/2</f>
+        <v>1.0026598207199999</v>
+      </c>
       <c r="K2" s="8"/>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -680,12 +687,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -24,20 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>RSVD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RSVD2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有merge</t>
-    <rPh sb="0" eb="1">
-      <t>suo'you</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非线性在重跑，sgd k=5, fullgradient k=32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>k=32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,7 +126,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sgd k=10</t>
+    <t>SVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgd k=10, full gradient k=32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgd k=5, fullgradient k=32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cumulative score</t>
+    <rPh sb="0" eb="1">
+      <t>suo'you</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -215,6 +235,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -508,197 +535,234 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="12.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="54.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.01829630753</v>
-      </c>
-      <c r="C2">
-        <v>1.02146865384</v>
+    </row>
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.0051319759899999</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1.0078562738800001</v>
       </c>
       <c r="D2" s="1">
         <f>(B2+C2)/2</f>
-        <v>1.019882480685</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.0020703154599999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.0032493259799999</v>
-      </c>
-      <c r="G2" s="4">
-        <f>(E2+F2)/2</f>
-        <v>1.0026598207199999</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" t="s">
-        <v>24</v>
+        <v>1.0064941249350001</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1.00765175887</v>
+        <v>1.01829630753</v>
       </c>
       <c r="C3">
-        <v>1.0103749288299999</v>
+        <v>1.02146865384</v>
       </c>
       <c r="D3" s="1">
         <f>(B3+C3)/2</f>
-        <v>1.00901334385</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.98477633248999996</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.98609589528899999</v>
+        <v>1.019882480685</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.0020703154599999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.0032493259799999</v>
       </c>
       <c r="G3" s="4">
         <f>(E3+F3)/2</f>
-        <v>0.98543611388950003</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.998134165139</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1.0001179839300001</v>
-      </c>
-      <c r="J3" s="7">
-        <f>(H3+I3)/2</f>
-        <v>0.99912607453450009</v>
-      </c>
-      <c r="K3" s="8"/>
+        <v>1.0026598207199999</v>
+      </c>
+      <c r="K3" s="11"/>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1.0437874158</v>
+        <v>1.00765175887</v>
       </c>
       <c r="C4">
-        <v>1.0472273028100001</v>
+        <v>1.0103749288299999</v>
       </c>
       <c r="D4" s="1">
         <f>(B4+C4)/2</f>
-        <v>1.0455073593050002</v>
+        <v>1.00901334385</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.98477633248999996</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.98609589528899999</v>
+      </c>
+      <c r="G4" s="4">
+        <f>(E4+F4)/2</f>
+        <v>0.98543611388950003</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.998134165139</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.0001179839300001</v>
+      </c>
+      <c r="J4" s="7">
+        <f>(H4+I4)/2</f>
+        <v>0.99912607453450009</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="K5" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.0437874158</v>
+      </c>
+      <c r="C5">
+        <v>1.0472273028100001</v>
+      </c>
+      <c r="D5" s="1">
+        <f>(B5+C5)/2</f>
+        <v>1.0455073593050002</v>
+      </c>
+      <c r="K5" s="11"/>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1.0784081347100001</v>
-      </c>
-      <c r="C6">
-        <v>1.08233799913</v>
-      </c>
-      <c r="D6" s="1">
-        <f>(B6+C6)/2</f>
-        <v>1.08037306692</v>
-      </c>
-      <c r="K6" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="K6" s="11"/>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1.01672377186</v>
+        <v>1.0784081347100001</v>
       </c>
       <c r="C7">
-        <v>1.0200050479</v>
+        <v>1.08233799913</v>
       </c>
       <c r="D7" s="1">
         <f>(B7+C7)/2</f>
+        <v>1.08037306692</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1.01672377186</v>
+      </c>
+      <c r="C8">
+        <v>1.0200050479</v>
+      </c>
+      <c r="D8" s="1">
+        <f>(B8+C8)/2</f>
         <v>1.01836440988</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="K9" s="11"/>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K2:K7"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -525,7 +525,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -693,7 +693,16 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="B6">
+        <v>1.0692829471700001</v>
+      </c>
+      <c r="C6">
+        <v>1.06739907225</v>
+      </c>
+      <c r="D6" s="1">
+        <f>(B6+C6)/2</f>
+        <v>1.0683410097100001</v>
+      </c>
       <c r="K6" s="11"/>
       <c r="L6" t="s">
         <v>16</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>RSVD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,18 +146,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kaggle score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kaggle score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cumulative score</t>
-    <rPh sb="0" eb="1">
-      <t>suo'you</t>
-    </rPh>
+    <t>Kaggle score, exclusive of nonlinear full gradient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -233,15 +222,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -535,11 +520,10 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="12.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -571,38 +555,34 @@
         <v>15</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>1.0051319759899999</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>1.0078562738800001</v>
       </c>
       <c r="D2" s="1">
-        <f>(B2+C2)/2</f>
+        <f t="shared" ref="D2:D8" si="0">(B2+C2)/2</f>
         <v>1.0064941249350001</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -613,7 +593,7 @@
         <v>1.02146865384</v>
       </c>
       <c r="D3" s="1">
-        <f>(B3+C3)/2</f>
+        <f t="shared" si="0"/>
         <v>1.019882480685</v>
       </c>
       <c r="E3" s="2">
@@ -626,12 +606,11 @@
         <f>(E3+F3)/2</f>
         <v>1.0026598207199999</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -642,7 +621,7 @@
         <v>1.0103749288299999</v>
       </c>
       <c r="D4" s="1">
-        <f>(B4+C4)/2</f>
+        <f t="shared" si="0"/>
         <v>1.00901334385</v>
       </c>
       <c r="E4" s="3">
@@ -665,12 +644,11 @@
         <f>(H4+I4)/2</f>
         <v>0.99912607453450009</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -681,15 +659,14 @@
         <v>1.0472273028100001</v>
       </c>
       <c r="D5" s="1">
-        <f>(B5+C5)/2</f>
+        <f t="shared" si="0"/>
         <v>1.0455073593050002</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -700,15 +677,14 @@
         <v>1.06739907225</v>
       </c>
       <c r="D6" s="1">
-        <f>(B6+C6)/2</f>
+        <f t="shared" si="0"/>
         <v>1.0683410097100001</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -719,15 +695,14 @@
         <v>1.08233799913</v>
       </c>
       <c r="D7" s="1">
-        <f>(B7+C7)/2</f>
+        <f t="shared" si="0"/>
         <v>1.08037306692</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -738,35 +713,30 @@
         <v>1.0200050479</v>
       </c>
       <c r="D8" s="1">
-        <f>(B8+C8)/2</f>
+        <f t="shared" si="0"/>
         <v>1.01836440988</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="K9" s="11"/>
-      <c r="L9" t="s">
+      <c r="D9" s="1">
+        <v>0.97823000000000004</v>
+      </c>
+      <c r="K9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>

--- a/result.xlsx
+++ b/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>RSVD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>Kaggle score, exclusive of nonlinear full gradient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User based</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -569,7 +573,7 @@
         <v>1.0078562738800001</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D8" si="0">(B2+C2)/2</f>
+        <f t="shared" ref="D2:D9" si="0">(B2+C2)/2</f>
         <v>1.0064941249350001</v>
       </c>
       <c r="E2" s="9"/>
@@ -722,22 +726,37 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>0.99887652483599998</v>
+      </c>
+      <c r="C9">
+        <v>1.0004932316499999</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9996848782429999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>0.97823000000000004</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
